--- a/channel.xlsx
+++ b/channel.xlsx
@@ -302,10 +302,6 @@
   </si>
   <si>
     <t>易通贷理财</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>易通贷理财</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -489,6 +485,10 @@
   </si>
   <si>
     <t>MTA3MTQwMzU=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易通贷理财-投资理财</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +984,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1023,7 +1023,7 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1040,7 +1040,7 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1057,7 +1057,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1071,10 +1071,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1091,7 +1091,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1108,7 +1108,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1122,10 +1122,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1142,7 +1142,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1159,7 +1159,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1176,7 +1176,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1190,10 +1190,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1210,7 +1210,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1227,7 +1227,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1244,7 +1244,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1261,7 +1261,7 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1278,7 +1278,7 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1295,7 +1295,7 @@
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1309,10 +1309,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1326,10 +1326,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1346,7 +1346,7 @@
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1360,10 +1360,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1380,7 +1380,7 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.15">
@@ -1397,7 +1397,7 @@
         <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.15">
@@ -1414,126 +1414,126 @@
         <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
         <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="D31" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="D32" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/channel.xlsx
+++ b/channel.xlsx
@@ -64,10 +64,6 @@
     <t>xsh04</t>
   </si>
   <si>
-    <t>机锋网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MjExOTU5Mw==</t>
   </si>
   <si>
@@ -80,36 +76,24 @@
     <t>xsh06</t>
   </si>
   <si>
-    <t xml:space="preserve">360应用市场 </t>
-  </si>
-  <si>
     <t>MjExOTk2NQ==</t>
   </si>
   <si>
     <t>xsh07</t>
   </si>
   <si>
-    <t>oppo</t>
-  </si>
-  <si>
     <t>MjExOTk5NQ==</t>
   </si>
   <si>
     <t>xsh08</t>
   </si>
   <si>
-    <t>豌豆荚</t>
-  </si>
-  <si>
     <t>MjEyMDAyNQ==</t>
   </si>
   <si>
     <t>xsh09</t>
   </si>
   <si>
-    <t>乐商店</t>
-  </si>
-  <si>
     <t>MjEyMDA0NQ==</t>
   </si>
   <si>
@@ -126,9 +110,6 @@
     <t>xsh11</t>
   </si>
   <si>
-    <t>小米应用市场</t>
-  </si>
-  <si>
     <t>MjEyMDA2NQ==</t>
   </si>
   <si>
@@ -152,10 +133,6 @@
     <t>xsh14</t>
   </si>
   <si>
-    <t>优亿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MjEyMDEyNQ==</t>
   </si>
   <si>
@@ -202,10 +179,6 @@
     <t>xsh21</t>
   </si>
   <si>
-    <t>搜狗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MjEyMDUwMQ==</t>
   </si>
   <si>
@@ -263,10 +236,6 @@
   </si>
   <si>
     <t>yinxiao40</t>
-  </si>
-  <si>
-    <t>360应用市场马甲包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OTY0NDgxMg==</t>
@@ -490,6 +459,42 @@
   <si>
     <t>易通贷理财-投资理财</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机锋网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">360应用市场 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆荚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米应用市场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优亿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>360应用市场马甲包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -984,7 +989,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -997,16 +1002,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1020,10 +1025,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1037,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1054,10 +1059,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -1065,475 +1070,475 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
